--- a/files/spielerranglisten/Spielerrangliste-2017-2018-alle.xlsx
+++ b/files/spielerranglisten/Spielerrangliste-2017-2018-alle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>OÖBV - Mannschaftsmeisterschaft</t>
   </si>
@@ -66,13 +66,31 @@
     <t>1.</t>
   </si>
   <si>
+    <t>Sageder</t>
+  </si>
+  <si>
+    <t>Jürgen</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Schwarz</t>
+  </si>
+  <si>
+    <t>Rene</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
     <t>Hajek</t>
   </si>
   <si>
     <t>Christoph</t>
   </si>
   <si>
-    <t>2.</t>
+    <t>4.</t>
   </si>
   <si>
     <t>Adlmanninger</t>
@@ -81,7 +99,7 @@
     <t>Hans Peter</t>
   </si>
   <si>
-    <t>3.</t>
+    <t>5.</t>
   </si>
   <si>
     <t>Rockenschaub</t>
@@ -90,7 +108,7 @@
     <t>Erwin</t>
   </si>
   <si>
-    <t>4.</t>
+    <t>6.</t>
   </si>
   <si>
     <t>Hörmanseder</t>
@@ -99,7 +117,7 @@
     <t>Markus</t>
   </si>
   <si>
-    <t>5.</t>
+    <t>7.</t>
   </si>
   <si>
     <t>Mittermayr</t>
@@ -108,7 +126,7 @@
     <t>Alexander</t>
   </si>
   <si>
-    <t>6.</t>
+    <t>8.</t>
   </si>
   <si>
     <t>Huber</t>
@@ -117,16 +135,7 @@
     <t>Helmuth</t>
   </si>
   <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>Sageder</t>
-  </si>
-  <si>
-    <t>Jürgen</t>
-  </si>
-  <si>
-    <t>8.</t>
+    <t>9.</t>
   </si>
   <si>
     <t>Angleitner</t>
@@ -135,7 +144,7 @@
     <t>Günther</t>
   </si>
   <si>
-    <t>9.</t>
+    <t>10.</t>
   </si>
   <si>
     <t>Gumpoltsberger</t>
@@ -144,7 +153,7 @@
     <t>Andreas</t>
   </si>
   <si>
-    <t>10.</t>
+    <t>11.</t>
   </si>
   <si>
     <t>Schinagl</t>
@@ -153,7 +162,7 @@
     <t>Justin</t>
   </si>
   <si>
-    <t>11.</t>
+    <t>12.</t>
   </si>
   <si>
     <t>Bösch</t>
@@ -162,7 +171,7 @@
     <t>Julian</t>
   </si>
   <si>
-    <t>12.</t>
+    <t>13.</t>
   </si>
   <si>
     <t>Strauß</t>
@@ -171,7 +180,7 @@
     <t>Stefan</t>
   </si>
   <si>
-    <t>13.</t>
+    <t>14.</t>
   </si>
   <si>
     <t>Penzinger</t>
@@ -180,24 +189,9 @@
     <t>Martin</t>
   </si>
   <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>Schwarz</t>
-  </si>
-  <si>
-    <t>Rene</t>
-  </si>
-  <si>
     <t>Damen</t>
   </si>
   <si>
-    <t>Steinmann</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
     <t>Braid</t>
   </si>
   <si>
@@ -207,28 +201,28 @@
     <t>Sabine</t>
   </si>
   <si>
+    <t>Lindinger</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Brunhilde</t>
+  </si>
+  <si>
+    <t>Strasser</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
     <t>Nadine</t>
-  </si>
-  <si>
-    <t>Lindinger</t>
-  </si>
-  <si>
-    <t>Melanie</t>
-  </si>
-  <si>
-    <t>Alexandra</t>
-  </si>
-  <si>
-    <t>Brunhilde</t>
-  </si>
-  <si>
-    <t>Strasser</t>
-  </si>
-  <si>
-    <t>Petra</t>
-  </si>
-  <si>
-    <t>Carolina</t>
   </si>
   <si>
     <t>ASKÖ Badmintonverein  Pasching</t>
@@ -818,10 +812,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D72" sqref="D72"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -990,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1">
-        <v>32198</v>
+        <v>31029</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1010,10 +1004,10 @@
         <v>20</v>
       </c>
       <c r="D13" s="1">
-        <v>34293</v>
+        <v>37953</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
         <v>314</v>
@@ -1030,7 +1024,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="1">
-        <v>1125</v>
+        <v>32198</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1050,7 +1044,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="1">
-        <v>30008</v>
+        <v>34293</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1070,7 +1064,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="1">
-        <v>32076</v>
+        <v>1125</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1090,7 +1084,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="1">
-        <v>1111</v>
+        <v>30008</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1110,7 +1104,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="1">
-        <v>31029</v>
+        <v>32076</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1130,7 +1124,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="1">
-        <v>30286</v>
+        <v>1111</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1150,7 +1144,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="1">
-        <v>30007</v>
+        <v>30286</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1170,10 +1164,10 @@
         <v>44</v>
       </c>
       <c r="D21" s="1">
-        <v>35735</v>
+        <v>30007</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>314</v>
@@ -1190,7 +1184,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="1">
-        <v>36354</v>
+        <v>35735</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -1210,7 +1204,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="1">
-        <v>31866</v>
+        <v>36354</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -1230,7 +1224,7 @@
         <v>53</v>
       </c>
       <c r="D24" s="1">
-        <v>38373</v>
+        <v>31866</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -1250,7 +1244,7 @@
         <v>56</v>
       </c>
       <c r="D25" s="1">
-        <v>37953</v>
+        <v>38373</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -1283,7 +1277,7 @@
         <v>59</v>
       </c>
       <c r="D28" s="1">
-        <v>31381</v>
+        <v>1703</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1297,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
       <c r="D29" s="1">
-        <v>1703</v>
+        <v>31298</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1317,13 +1311,13 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="1">
-        <v>31298</v>
+        <v>32113</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1337,13 +1331,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="1">
-        <v>32199</v>
+        <v>31851</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1357,13 +1351,13 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
       <c r="D32" s="1">
-        <v>32113</v>
+        <v>1129</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1377,13 +1371,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
       </c>
       <c r="D33" s="1">
-        <v>31851</v>
+        <v>3403</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1397,13 +1391,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="1">
-        <v>1129</v>
+        <v>36353</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1417,119 +1411,119 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="1">
+        <v>32199</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" customHeight="1" ht="30">
+      <c r="A37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="1">
-        <v>3403</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="1">
-        <v>36353</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" customHeight="1" ht="30">
-      <c r="A38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12">
         <v>305</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G37" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H37" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" customHeight="1" ht="9">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="2"/>
+    <row r="38" spans="1:9" customHeight="1" ht="9">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="A40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="15"/>
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1">
+        <v>30921</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>305</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D42" s="1">
-        <v>30921</v>
+        <v>31988</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1540,7 +1534,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
         <v>72</v>
@@ -1549,7 +1543,7 @@
         <v>73</v>
       </c>
       <c r="D43" s="1">
-        <v>31988</v>
+        <v>1257</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1560,16 +1554,16 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
         <v>74</v>
       </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
       <c r="D44" s="1">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1579,64 +1573,64 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="1">
-        <v>1272</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="D45" s="3">
+        <v>1275</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
         <v>305</v>
       </c>
+      <c r="G45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1275</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1270</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
         <v>305</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
         <v>81</v>
       </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
       <c r="D47" s="1">
-        <v>1270</v>
+        <v>32372</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -1645,51 +1639,51 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="49" spans="1:9">
+      <c r="A49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="1">
-        <v>32372</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="D50" s="1">
+        <v>30504</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
         <v>305</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
         <v>84</v>
       </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
       <c r="D51" s="1">
-        <v>30504</v>
+        <v>1274</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -1700,16 +1694,16 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1">
-        <v>1274</v>
+        <v>30505</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -1720,16 +1714,16 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
         <v>87</v>
       </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
       <c r="D53" s="1">
-        <v>30505</v>
+        <v>35253</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -1738,131 +1732,131 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="55" spans="1:9" customHeight="1" ht="30">
+      <c r="A55" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C54" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="1">
-        <v>35253</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" customHeight="1" ht="30">
-      <c r="A56" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12">
         <v>313</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G55" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H55" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I55" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" customHeight="1" ht="9">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="2"/>
+    <row r="56" spans="1:9" customHeight="1" ht="9">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="15"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="A58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
       <c r="I58" s="15"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="15"/>
+      <c r="A59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1386</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>313</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1386</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3917</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
         <v>313</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D61" s="1">
-        <v>3917</v>
+        <v>1358</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -1873,16 +1867,16 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
         <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D62" s="1">
-        <v>1358</v>
+        <v>30769</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -1893,7 +1887,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
         <v>95</v>
@@ -1902,7 +1896,7 @@
         <v>96</v>
       </c>
       <c r="D63" s="1">
-        <v>30769</v>
+        <v>37215</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -1913,7 +1907,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
         <v>97</v>
@@ -1922,7 +1916,7 @@
         <v>98</v>
       </c>
       <c r="D64" s="1">
-        <v>37215</v>
+        <v>38273</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -1930,55 +1924,55 @@
       <c r="F64" s="1">
         <v>313</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="G64" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="1">
-        <v>38273</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="C67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="1">
+        <v>30770</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
         <v>313</v>
       </c>
-      <c r="G65" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D68" s="1">
-        <v>30770</v>
+        <v>30768</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -1989,16 +1983,16 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D69" s="1">
-        <v>30768</v>
+        <v>36473</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -2009,16 +2003,16 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" t="s">
         <v>104</v>
       </c>
-      <c r="C70" t="s">
-        <v>105</v>
-      </c>
       <c r="D70" s="1">
-        <v>36473</v>
+        <v>37013</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -2029,41 +2023,21 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D71" s="1">
-        <v>37013</v>
+        <v>35534</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" s="1">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" s="1">
-        <v>35534</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1">
         <v>313</v>
       </c>
     </row>
@@ -2075,8 +2049,8 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A55:E55"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/spielerranglisten/Spielerrangliste-2017-2018-alle.xlsx
+++ b/files/spielerranglisten/Spielerrangliste-2017-2018-alle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>OÖBV - Mannschaftsmeisterschaft</t>
   </si>
@@ -334,6 +334,21 @@
   </si>
   <si>
     <t>Laura</t>
+  </si>
+  <si>
+    <t>ÖTB - Allgemeiner Turnverein  Andorf</t>
+  </si>
+  <si>
+    <t>Hattinger234</t>
+  </si>
+  <si>
+    <t>Tobias324</t>
+  </si>
+  <si>
+    <t>Hattinger</t>
+  </si>
+  <si>
+    <t>Tobias</t>
   </si>
 </sst>
 </file>
@@ -812,10 +827,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2041,6 +2056,125 @@
         <v>313</v>
       </c>
     </row>
+    <row r="73" spans="1:9" customHeight="1" ht="30">
+      <c r="A73" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12">
+        <v>301</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" customHeight="1" ht="9">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="1">
+        <v>234234</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="1">
+        <v>210</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="15"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
@@ -2051,6 +2185,7 @@
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A73:E73"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/spielerranglisten/Spielerrangliste-2017-2018-alle.xlsx
+++ b/files/spielerranglisten/Spielerrangliste-2017-2018-alle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>OÖBV - Mannschaftsmeisterschaft</t>
   </si>
@@ -29,53 +29,7 @@
     <t>S P I E L E R R A N G L I S T E</t>
   </si>
   <si>
-    <t>Stand per 09.02.2018</t>
-  </si>
-  <si>
-    <t>Union VKB  Braunau</t>
-  </si>
-  <si>
-    <t>Änderungen/
-Mannschaftsf.</t>
-  </si>
-  <si>
-    <t>Handy-Nr.</t>
-  </si>
-  <si>
-    <t>E-Mail</t>
-  </si>
-  <si>
-    <t>Nachname</t>
-  </si>
-  <si>
-    <t>Vorname</t>
-  </si>
-  <si>
-    <t>Mitgl. Nr.</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Vereins-Nr.</t>
-  </si>
-  <si>
-    <t>Herren</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>Jauch</t>
-  </si>
-  <si>
-    <t>Günter</t>
-  </si>
-  <si>
-    <t>Hallo</t>
-  </si>
-  <si>
-    <t>Damen</t>
+    <t>Stand per 01.01.1970</t>
   </si>
 </sst>
 </file>
@@ -86,15 +40,6 @@
   <fonts count="5">
     <font>
       <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -129,8 +74,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,19 +96,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1E90FF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF32CD32"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF1E90FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -165,60 +113,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +478,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -574,182 +498,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customHeight="1" ht="40.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" customHeight="1" ht="21">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" customHeight="1" ht="24">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="8" spans="1:9" customHeight="1" ht="30">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12">
-        <v>310</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" customHeight="1" ht="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1">
-        <v>200</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>310</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -758,7 +580,6 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:I3"/>
-    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
